--- a/CommunityConnections/Content/Data.xlsx
+++ b/CommunityConnections/Content/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Full Page</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> community home care</t>
+  </si>
+  <si>
+    <t>meshubach judacia</t>
+  </si>
+  <si>
+    <t>Eisenberger and Adler</t>
+  </si>
+  <si>
+    <t>Rapid</t>
+  </si>
+  <si>
+    <t>911 STERN PLUMBING</t>
+  </si>
+  <si>
+    <t>ladies first car service</t>
+  </si>
+  <si>
+    <t>comfort health quarter blue</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -450,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +486,10 @@
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -477,8 +502,11 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -491,8 +519,11 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>108</v>
       </c>
@@ -505,8 +536,11 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>126</v>
       </c>
@@ -519,8 +553,11 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>217</v>
       </c>
@@ -533,8 +570,11 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>216</v>
       </c>
@@ -547,8 +587,11 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>432</v>
       </c>
@@ -561,8 +604,11 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>126</v>
       </c>
@@ -574,6 +620,9 @@
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
